--- a/medicine/Psychotrope/Balmes_dauphinoises/Balmes_dauphinoises.xlsx
+++ b/medicine/Psychotrope/Balmes_dauphinoises/Balmes_dauphinoises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Balmes dauphinoises est à l'origine un vin de pays français. Cette dénomination a été remplacée depuis 2011 par l'indication géographique protégée (IGP) Isère complétée du nom de l'unité géographique Balmes dauphinoises. Il est produit dans le département de l'Isère à l'extrême nord du Dauphiné, essentiellement entre Bourgoin-Jallieu et Morestel[3].
+Balmes dauphinoises est à l'origine un vin de pays français. Cette dénomination a été remplacée depuis 2011 par l'indication géographique protégée (IGP) Isère complétée du nom de l'unité géographique Balmes dauphinoises. Il est produit dans le département de l'Isère à l'extrême nord du Dauphiné, essentiellement entre Bourgoin-Jallieu et Morestel.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,13 +554,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orographie et géologie
-Le terroir viticole des Balmes dauphinoises se situe au nord de La Tour-du-Pin, entre le Plateau de Crémieu et le cours du Rhône longeant le sud-ouest du Bugey. Constitué d’une série de collines parallèles d'orientation est-ouest, il bénéficie de coteaux exposés au sud. Ses sols morainiques sont siliceux, sablo-limoneux, graveleux ou composés de galets[4].
-Climat
-Le climat septentrional préalpin est marqué par une forte chaleur estivale, associée à une importante pluviométrie, et des hivers froids. Ceci induit un cycle végétatif assez court, typique du Dauphiné. Cette diversité climatique, topographique, et pédologique a permis de distinguer les « Balmes Dauphinoises » au sein du label Isère (IGP)[4].
-Répartition administrative
-Les vignobles pouvant revendiquer pour leurs vins le label IGP se trouvent sur les communes de[5] :
-Annoisin-Chatelans, Aoste, Arandon, Les Avenières Veyrins-Thuellin, La Balme-les-Grottes, Le Bouchage, Bourgoin-Jallieu, Bouvesse-Quirieu, Brangues, Cessieu, La Chapelle-de-la-Tour, Charette, Chimilin, Chozeau, Corbelin, Courtenay, Crémieu, Creys-Mépieu, Dizimieu, Dolomieu, Faverges-de-la-Tour, Granieu, Hières-sur-Amby, Leyrieu, Montalieu-Vercieu, Montcarra, Moras, Morestel, Optevoz, Parmilieu, Passins, Porcieu-Amblagnieu, Roche, Rochetoirin, Romagnieu, Ruy, Saint-Baudille-de-la-Tour, Saint-Chef, Saint-Hilaire-de-Brens, Saint-Marcel-Bel-Accueil, Saint-Romain-de-Jalionas, Saint-Savin, Saint-Sorlin-de-Morestel, Saint-Victor-de-Morestel, Salagnon, Sermérieu, Siccieu-Saint-Julien-et-Carisieu, Soleymieu, Trept, Vasselin, Vénérieu, Vernas, Vertrieu, Veyssilieu, Vézeronce-Curtin, Vignieu et Villemoirieu.
+          <t>Orographie et géologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terroir viticole des Balmes dauphinoises se situe au nord de La Tour-du-Pin, entre le Plateau de Crémieu et le cours du Rhône longeant le sud-ouest du Bugey. Constitué d’une série de collines parallèles d'orientation est-ouest, il bénéficie de coteaux exposés au sud. Ses sols morainiques sont siliceux, sablo-limoneux, graveleux ou composés de galets.
 </t>
         </is>
       </c>
@@ -572,13 +586,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Types de vins</t>
+          <t>Géographie du Vignoble</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le climat et les orientations Sud produisent une maturité poussée, qui se marque dans les vins blancs par une rondeur notable et une acidité discrète. Ces vins marqués par une minéralité et des arômes de fleur blanche. Ceci permet de les déguster rapidement après leur vinification et leur mise en bouteille. Avec un potentiel de garde moyen, ils conservent un bon équilibre gras/acidité[4]. 
-Les vins rouges à la robe profonde possèdent des tannins souples, une palette aromatique qui passe des petits fruits rouges ou noirs aux notes épicées. Avec une structure tannique importante et un potentiel couleur supérieur, ils sont de préférence à déguster dans leur jeunesse. Néanmoins, ils peuvent aussi être des vins de garde[4].
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat septentrional préalpin est marqué par une forte chaleur estivale, associée à une importante pluviométrie, et des hivers froids. Ceci induit un cycle végétatif assez court, typique du Dauphiné. Cette diversité climatique, topographique, et pédologique a permis de distinguer les « Balmes Dauphinoises » au sein du label Isère (IGP).
 </t>
         </is>
       </c>
@@ -604,12 +623,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Géographie du Vignoble</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition administrative</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignobles pouvant revendiquer pour leurs vins le label IGP se trouvent sur les communes de :
+Annoisin-Chatelans, Aoste, Arandon, Les Avenières Veyrins-Thuellin, La Balme-les-Grottes, Le Bouchage, Bourgoin-Jallieu, Bouvesse-Quirieu, Brangues, Cessieu, La Chapelle-de-la-Tour, Charette, Chimilin, Chozeau, Corbelin, Courtenay, Crémieu, Creys-Mépieu, Dizimieu, Dolomieu, Faverges-de-la-Tour, Granieu, Hières-sur-Amby, Leyrieu, Montalieu-Vercieu, Montcarra, Moras, Morestel, Optevoz, Parmilieu, Passins, Porcieu-Amblagnieu, Roche, Rochetoirin, Romagnieu, Ruy, Saint-Baudille-de-la-Tour, Saint-Chef, Saint-Hilaire-de-Brens, Saint-Marcel-Bel-Accueil, Saint-Romain-de-Jalionas, Saint-Savin, Saint-Sorlin-de-Morestel, Saint-Victor-de-Morestel, Salagnon, Sermérieu, Siccieu-Saint-Julien-et-Carisieu, Soleymieu, Trept, Vasselin, Vénérieu, Vernas, Vertrieu, Veyssilieu, Vézeronce-Curtin, Vignieu et Villemoirieu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Balmes_dauphinoises</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balmes_dauphinoises</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types de vins</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat et les orientations Sud produisent une maturité poussée, qui se marque dans les vins blancs par une rondeur notable et une acidité discrète. Ces vins marqués par une minéralité et des arômes de fleur blanche. Ceci permet de les déguster rapidement après leur vinification et leur mise en bouteille. Avec un potentiel de garde moyen, ils conservent un bon équilibre gras/acidité. 
+Les vins rouges à la robe profonde possèdent des tannins souples, une palette aromatique qui passe des petits fruits rouges ou noirs aux notes épicées. Avec une structure tannique importante et un potentiel couleur supérieur, ils sont de préférence à déguster dans leur jeunesse. Néanmoins, ils peuvent aussi être des vins de garde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Balmes_dauphinoises</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balmes_dauphinoises</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les cépages du cahier des charges sont[6] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les cépages du cahier des charges sont :
 Vins rouges et rosés :
 Cépages autorisés : étraire de la Dui N, gamay noir à jus blanc, joubertin N, mècle N, pinot N, persan N, mondeuse N, syrah N, servanin N, corbeau N
 Cépages tolérés (mesure transitoire jusqu'en 2036) : cabernet sauvignon N, merlot N, gamay chaudenay et gamay de bouze
@@ -619,31 +712,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Balmes_dauphinoises</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Balmes_dauphinoises</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Pratiques culturales et réglementaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rendement maximal est de 80 hectolitres par hectare. Le titre alcoométrique volumique naturel minimal est de 9,5 %. La production est de l'ordre de 1000 hl par an.
 </t>
